--- a/results/mp/logistic/corona/confidence/168/masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
@@ -58,24 +58,24 @@
     <t>fears</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -91,12 +91,6 @@
     <t>the</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -112,75 +106,75 @@
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>support</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>support</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
@@ -188,15 +182,6 @@
   </si>
   <si>
     <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -554,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -623,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -723,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7945205479452054</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,28 +758,28 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K6">
         <v>0.8660714285714286</v>
@@ -823,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8381201044386423</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L7">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5882352941176471</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.559322033898305</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.544973544973545</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.7878787878787878</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="M10">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5155038759689923</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7735849056603774</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L11">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="M11">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.44</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.7734375</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.436241610738255</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="D13">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7676056338028169</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L13">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3805555555555555</v>
+        <v>0.36</v>
       </c>
       <c r="C14">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7659574468085106</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.25</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.765625</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L15">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1447721179624665</v>
+        <v>0.1367292225201072</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7625</v>
+        <v>0.75625</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,37 +1308,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01264222503160556</v>
+        <v>0.01095659502739149</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F17">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,19 +1358,19 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0103126007089913</v>
+        <v>0.009674298613350531</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>36</v>
       </c>
       <c r="E18">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="F18">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1394,16 +1379,16 @@
         <v>3071</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,137 +1408,89 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006609642301710731</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="F19">
-        <v>0.62</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>5110</v>
+        <v>5115</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.7209302325581395</v>
+      </c>
+      <c r="L19">
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>28</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K19">
-        <v>0.7441860465116279</v>
-      </c>
-      <c r="L19">
-        <v>32</v>
-      </c>
-      <c r="M19">
-        <v>32</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.006042296072507553</v>
-      </c>
-      <c r="C20">
-        <v>26</v>
-      </c>
-      <c r="D20">
-        <v>51</v>
-      </c>
-      <c r="E20">
-        <v>0.49</v>
-      </c>
-      <c r="F20">
-        <v>0.51</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>4277</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L20">
-        <v>34</v>
-      </c>
-      <c r="M20">
-        <v>34</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.005434782608695652</v>
-      </c>
-      <c r="C21">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>55</v>
-      </c>
-      <c r="E21">
-        <v>0.51</v>
-      </c>
-      <c r="F21">
-        <v>0.49</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>4941</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.675</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1591,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1617,47 +1554,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6147058823529412</v>
+        <v>0.5938566552901023</v>
       </c>
       <c r="L24">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="M24">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.5957446808510638</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L25">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="M25">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1669,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.5732217573221757</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L26">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1695,21 +1632,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5627118644067797</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="M27">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1721,21 +1658,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>129</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1747,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5285714285714286</v>
+        <v>0.52</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1773,47 +1710,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5168539325842697</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L30">
+        <v>43</v>
+      </c>
+      <c r="M30">
+        <v>43</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>46</v>
-      </c>
-      <c r="M30">
-        <v>46</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.3333333333333333</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1825,163 +1762,33 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.03010033444816054</v>
+        <v>0.02838063439065109</v>
       </c>
       <c r="L32">
+        <v>34</v>
+      </c>
+      <c r="M32">
         <v>36</v>
       </c>
-      <c r="M32">
-        <v>40</v>
-      </c>
       <c r="N32">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33">
-        <v>0.01238738738738739</v>
-      </c>
-      <c r="L33">
-        <v>33</v>
-      </c>
-      <c r="M33">
-        <v>42</v>
-      </c>
-      <c r="N33">
-        <v>0.79</v>
-      </c>
-      <c r="O33">
-        <v>0.21</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34">
-        <v>0.01130653266331658</v>
-      </c>
-      <c r="L34">
-        <v>27</v>
-      </c>
-      <c r="M34">
-        <v>33</v>
-      </c>
-      <c r="N34">
-        <v>0.82</v>
-      </c>
-      <c r="O34">
-        <v>0.18</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35">
-        <v>0.00815814245371823</v>
-      </c>
-      <c r="L35">
-        <v>26</v>
-      </c>
-      <c r="M35">
-        <v>40</v>
-      </c>
-      <c r="N35">
-        <v>0.65</v>
-      </c>
-      <c r="O35">
-        <v>0.35</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36">
-        <v>0.005811250581125058</v>
-      </c>
-      <c r="L36">
-        <v>25</v>
-      </c>
-      <c r="M36">
-        <v>51</v>
-      </c>
-      <c r="N36">
-        <v>0.49</v>
-      </c>
-      <c r="O36">
-        <v>0.51</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>4277</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37">
-        <v>0.005634936606963172</v>
-      </c>
-      <c r="L37">
-        <v>28</v>
-      </c>
-      <c r="M37">
-        <v>55</v>
-      </c>
-      <c r="N37">
-        <v>0.51</v>
-      </c>
-      <c r="O37">
-        <v>0.49</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>4941</v>
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
